--- a/src/main/java/testing/excel/hw8_result.xlsx
+++ b/src/main/java/testing/excel/hw8_result.xlsx
@@ -6,8 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" r:id="rId3" sheetId="1"/>
-    <sheet name="2" r:id="rId4" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -108,9 +107,14 @@
           <t>month</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -126,8 +130,11 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
+      <c r="C2" t="n">
+        <v>5.0</v>
+      </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
@@ -140,11 +147,14 @@
       <c r="B3" t="n">
         <v>4.0</v>
       </c>
+      <c r="C3" t="n">
+        <v>5.0</v>
+      </c>
       <c r="D3" t="n">
         <v>5.0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -154,8 +164,11 @@
       <c r="B4" t="n">
         <v>2.0</v>
       </c>
+      <c r="C4" t="n">
+        <v>12.0</v>
+      </c>
       <c r="D4" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n">
         <v>6.0</v>
@@ -168,8 +181,11 @@
       <c r="B5" t="n">
         <v>15.0</v>
       </c>
+      <c r="C5" t="n">
+        <v>29.0</v>
+      </c>
       <c r="D5" t="n">
-        <v>29.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E5" t="n">
         <v>-1.0</v>
@@ -182,8 +198,11 @@
       <c r="B6" t="n">
         <v>4.0</v>
       </c>
+      <c r="C6" t="n">
+        <v>5.0</v>
+      </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E6" t="n">
         <v>-1.0</v>
@@ -191,13 +210,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0</v>
+        <v>500000.0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>500000.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E7" t="n">
         <v>-1.0</v>
@@ -205,13 +227,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0</v>
+        <v>500000.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>500000.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E8" t="n">
         <v>-1.0</v>
@@ -219,13 +244,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0</v>
+        <v>500000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>500000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E9" t="n">
         <v>-1.0</v>
@@ -233,13 +261,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0</v>
+        <v>500000.0</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>500000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E10" t="n">
         <v>-1.0</v>
@@ -247,13 +278,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0</v>
+        <v>500000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>500000.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E11" t="n">
         <v>-1.0</v>
@@ -264,10 +298,13 @@
         <v>20.0</v>
       </c>
       <c r="B12" t="n">
-        <v>4.0</v>
+        <v>-3.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.0</v>
       </c>
       <c r="D12" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E12" t="n">
         <v>-1.0</v>
@@ -275,13 +312,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20.0</v>
+        <v>80.0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0</v>
+        <v>-3.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>80.0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E13" t="n">
         <v>-1.0</v>
@@ -289,13 +329,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.0</v>
+        <v>150.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>-3.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150.0</v>
       </c>
       <c r="D14" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E14" t="n">
         <v>-1.0</v>
@@ -303,13 +346,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20.0</v>
+        <v>200.0</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0</v>
+        <v>-3.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>200.0</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E15" t="n">
         <v>-1.0</v>
@@ -317,13 +363,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20.0</v>
+        <v>500.0</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0</v>
+        <v>-3.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>500.0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E16" t="n">
         <v>-1.0</v>
@@ -331,13 +380,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>44640.0</v>
+        <v>20.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.0</v>
       </c>
       <c r="D17" t="n">
-        <v>44640.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E17" t="n">
         <v>-1.0</v>
@@ -345,13 +397,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>44640.0</v>
+        <v>80.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>80.0</v>
       </c>
       <c r="D18" t="n">
-        <v>44640.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E18" t="n">
         <v>-1.0</v>
@@ -359,13 +414,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>44640.0</v>
+        <v>150.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>150.0</v>
       </c>
       <c r="D19" t="n">
-        <v>44640.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E19" t="n">
         <v>-1.0</v>
@@ -373,13 +431,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>44640.0</v>
+        <v>200.0</v>
       </c>
       <c r="B20" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>200.0</v>
       </c>
       <c r="D20" t="n">
-        <v>44640.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E20" t="n">
         <v>-1.0</v>
@@ -387,13 +448,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44640.0</v>
+        <v>500.0</v>
       </c>
       <c r="B21" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>500.0</v>
       </c>
       <c r="D21" t="n">
-        <v>44640.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E21" t="n">
         <v>-1.0</v>
@@ -401,13 +465,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>44000.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.0</v>
       </c>
       <c r="D22" t="n">
-        <v>44000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E22" t="n">
         <v>-1.0</v>
@@ -415,13 +482,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>44000.0</v>
+        <v>80.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>80.0</v>
       </c>
       <c r="D23" t="n">
-        <v>44000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E23" t="n">
         <v>-1.0</v>
@@ -429,13 +499,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>44000.0</v>
+        <v>150.0</v>
       </c>
       <c r="B24" t="n">
         <v>1.0</v>
       </c>
+      <c r="C24" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D24" t="n">
-        <v>44000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E24" t="n">
         <v>-1.0</v>
@@ -443,13 +516,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>44000.0</v>
+        <v>200.0</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>200.0</v>
       </c>
       <c r="D25" t="n">
-        <v>44000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E25" t="n">
         <v>-1.0</v>
@@ -457,398 +533,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>44000.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-3.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-3.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-3.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
         <v>500.0</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
       </c>
+      <c r="C26" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D26" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E26" t="n">
         <v>-1.0</v>
@@ -861,8 +555,11 @@
       <c r="B27" t="n">
         <v>2.0</v>
       </c>
+      <c r="C27" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D27" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E27" t="n">
         <v>-1.0</v>
@@ -875,8 +572,11 @@
       <c r="B28" t="n">
         <v>2.0</v>
       </c>
+      <c r="C28" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D28" t="n">
-        <v>80.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E28" t="n">
         <v>-1.0</v>
@@ -889,8 +589,11 @@
       <c r="B29" t="n">
         <v>2.0</v>
       </c>
+      <c r="C29" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D29" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E29" t="n">
         <v>-1.0</v>
@@ -903,8 +606,11 @@
       <c r="B30" t="n">
         <v>2.0</v>
       </c>
+      <c r="C30" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D30" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E30" t="n">
         <v>-1.0</v>
@@ -917,8 +623,11 @@
       <c r="B31" t="n">
         <v>2.0</v>
       </c>
+      <c r="C31" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D31" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E31" t="n">
         <v>-1.0</v>
@@ -931,8 +640,11 @@
       <c r="B32" t="n">
         <v>3.0</v>
       </c>
+      <c r="C32" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D32" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E32" t="n">
         <v>-1.0</v>
@@ -945,8 +657,11 @@
       <c r="B33" t="n">
         <v>3.0</v>
       </c>
+      <c r="C33" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D33" t="n">
-        <v>80.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E33" t="n">
         <v>-1.0</v>
@@ -959,8 +674,11 @@
       <c r="B34" t="n">
         <v>3.0</v>
       </c>
+      <c r="C34" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D34" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E34" t="n">
         <v>-1.0</v>
@@ -973,8 +691,11 @@
       <c r="B35" t="n">
         <v>3.0</v>
       </c>
+      <c r="C35" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D35" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E35" t="n">
         <v>-1.0</v>
@@ -987,8 +708,11 @@
       <c r="B36" t="n">
         <v>3.0</v>
       </c>
+      <c r="C36" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D36" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E36" t="n">
         <v>-1.0</v>
@@ -1001,8 +725,11 @@
       <c r="B37" t="n">
         <v>4.0</v>
       </c>
+      <c r="C37" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D37" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E37" t="n">
         <v>-1.0</v>
@@ -1015,8 +742,11 @@
       <c r="B38" t="n">
         <v>5.0</v>
       </c>
+      <c r="C38" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D38" t="n">
-        <v>80.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E38" t="n">
         <v>-1.0</v>
@@ -1029,8 +759,11 @@
       <c r="B39" t="n">
         <v>6.0</v>
       </c>
+      <c r="C39" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D39" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E39" t="n">
         <v>-1.0</v>
@@ -1043,8 +776,11 @@
       <c r="B40" t="n">
         <v>5.0</v>
       </c>
+      <c r="C40" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D40" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E40" t="n">
         <v>-1.0</v>
@@ -1057,8 +793,11 @@
       <c r="B41" t="n">
         <v>6.0</v>
       </c>
+      <c r="C41" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D41" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E41" t="n">
         <v>-1.0</v>
@@ -1071,8 +810,11 @@
       <c r="B42" t="n">
         <v>7.0</v>
       </c>
+      <c r="C42" t="n">
+        <v>20.0</v>
+      </c>
       <c r="D42" t="n">
-        <v>20.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E42" t="n">
         <v>-1.0</v>
@@ -1085,8 +827,11 @@
       <c r="B43" t="n">
         <v>8.0</v>
       </c>
+      <c r="C43" t="n">
+        <v>80.0</v>
+      </c>
       <c r="D43" t="n">
-        <v>80.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E43" t="n">
         <v>-1.0</v>
@@ -1099,8 +844,11 @@
       <c r="B44" t="n">
         <v>9.0</v>
       </c>
+      <c r="C44" t="n">
+        <v>150.0</v>
+      </c>
       <c r="D44" t="n">
-        <v>150.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E44" t="n">
         <v>-1.0</v>
@@ -1113,8 +861,11 @@
       <c r="B45" t="n">
         <v>8.0</v>
       </c>
+      <c r="C45" t="n">
+        <v>200.0</v>
+      </c>
       <c r="D45" t="n">
-        <v>200.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E45" t="n">
         <v>-1.0</v>
@@ -1127,8 +878,11 @@
       <c r="B46" t="n">
         <v>9.0</v>
       </c>
+      <c r="C46" t="n">
+        <v>500.0</v>
+      </c>
       <c r="D46" t="n">
-        <v>500.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E46" t="n">
         <v>-1.0</v>

--- a/src/main/java/testing/excel/hw8_result.xlsx
+++ b/src/main/java/testing/excel/hw8_result.xlsx
@@ -125,81 +125,81 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2024.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B3" t="n">
         <v>4.0</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2039.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B6" t="n">
         <v>4.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="D6" t="n">
         <v>-1.0</v>
@@ -210,81 +210,81 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>500000.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>500000.0</v>
+        <v>22.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>500000.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" t="n">
-        <v>500000.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>500000.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="n">
-        <v>500000.0</v>
+        <v>29.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>500000.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C10" t="n">
-        <v>500000.0</v>
+        <v>30.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>500000.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B11" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C11" t="n">
-        <v>500000.0</v>
+        <v>31.0</v>
       </c>
       <c r="D11" t="n">
         <v>-1.0</v>
@@ -295,47 +295,47 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>80.0</v>
+        <v>28.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>150.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>150.0</v>
+        <v>29.0</v>
       </c>
       <c r="D14" t="n">
         <v>-1.0</v>
@@ -346,13 +346,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>200.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="D15" t="n">
         <v>-1.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>500.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>500.0</v>
+        <v>31.0</v>
       </c>
       <c r="D16" t="n">
         <v>-1.0</v>
@@ -380,166 +380,166 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B17" t="n">
         <v>12.0</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B18" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="C18" t="n">
-        <v>80.0</v>
+        <v>28.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>150.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B19" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="C19" t="n">
-        <v>150.0</v>
+        <v>29.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>200.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B20" t="n">
         <v>12.0</v>
       </c>
       <c r="C20" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>500.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B21" t="n">
         <v>12.0</v>
       </c>
       <c r="C21" t="n">
-        <v>500.0</v>
+        <v>31.0</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D22" t="n">
         <v>1.0</v>
       </c>
-      <c r="C22" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.0</v>
-      </c>
       <c r="E22" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>80.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0</v>
+        <v>28.0</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>150.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C24" t="n">
-        <v>150.0</v>
+        <v>29.0</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>200.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>500.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" t="n">
-        <v>500.0</v>
+        <v>31.0</v>
       </c>
       <c r="D26" t="n">
         <v>-1.0</v>
@@ -550,81 +550,81 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>80.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B28" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C28" t="n">
-        <v>80.0</v>
+        <v>28.0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>150.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B29" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C29" t="n">
-        <v>150.0</v>
+        <v>29.0</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>200.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B30" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C30" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>500.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C31" t="n">
-        <v>500.0</v>
+        <v>31.0</v>
       </c>
       <c r="D31" t="n">
         <v>-1.0</v>
@@ -635,47 +635,47 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B32" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C32" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>80.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B33" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C33" t="n">
-        <v>80.0</v>
+        <v>28.0</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>150.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C34" t="n">
-        <v>150.0</v>
+        <v>29.0</v>
       </c>
       <c r="D34" t="n">
         <v>-1.0</v>
@@ -686,13 +686,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>200.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B35" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C35" t="n">
-        <v>200.0</v>
+        <v>30.0</v>
       </c>
       <c r="D35" t="n">
         <v>-1.0</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>500.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B36" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C36" t="n">
-        <v>500.0</v>
+        <v>31.0</v>
       </c>
       <c r="D36" t="n">
         <v>-1.0</v>
@@ -720,87 +720,87 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B37" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C37" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>80.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B38" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C38" t="n">
-        <v>80.0</v>
+        <v>28.0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>150.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B39" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C39" t="n">
-        <v>150.0</v>
+        <v>29.0</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>200.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D40" t="n">
         <v>5.0</v>
       </c>
-      <c r="C40" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-1.0</v>
-      </c>
       <c r="E40" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>500.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C41" t="n">
-        <v>500.0</v>
+        <v>31.0</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">

--- a/src/main/java/testing/excel/hw8_result.xlsx
+++ b/src/main/java/testing/excel/hw8_result.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -125,30 +125,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C2" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
@@ -159,13 +159,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n">
         <v>4.0</v>
@@ -176,166 +176,166 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C6" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B8" t="n">
         <v>6.0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B10" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="C12" t="n">
         <v>15.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2021.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="D14" t="n">
         <v>-1.0</v>
@@ -346,13 +346,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2021.0</v>
+        <v>1890.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C15" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="D15" t="n">
         <v>-1.0</v>
@@ -363,27 +363,27 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2021.0</v>
+        <v>1900.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C16" t="n">
-        <v>31.0</v>
+        <v>15.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2021.0</v>
+        <v>1910.0</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" t="n">
         <v>15.0</v>
@@ -397,64 +397,64 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2021.0</v>
+        <v>2090.0</v>
       </c>
       <c r="B18" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C18" t="n">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2021.0</v>
+        <v>2100.0</v>
       </c>
       <c r="B19" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C19" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2021.0</v>
+        <v>2110.0</v>
       </c>
       <c r="B20" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C20" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="D20" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2021.0</v>
+        <v>2048.0</v>
       </c>
       <c r="B21" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C21" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="D21" t="n">
         <v>5.0</v>
@@ -465,19 +465,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2022.0</v>
+        <v>2048.0</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -485,16 +485,16 @@
         <v>2022.0</v>
       </c>
       <c r="B23" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C23" t="n">
         <v>28.0</v>
       </c>
       <c r="D23" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -502,16 +502,16 @@
         <v>2022.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="n">
         <v>29.0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E24" t="n">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="25">
@@ -550,342 +550,53 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2022.0</v>
+        <v>1900.0</v>
       </c>
       <c r="B27" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C27" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2022.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B28" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2022.0</v>
+        <v>2100.0</v>
       </c>
       <c r="B29" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C29" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B30" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D40" t="n">
         <v>5.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-1.0</v>
       </c>
     </row>
   </sheetData>
